--- a/2 четверть_4_Тестеровщик_Исключения.xlsx
+++ b/2 четверть_4_Тестеровщик_Исключения.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user0\Desktop\Homework-repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204571C7-EE84-48CE-A7A1-9F5079E9D125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ED2C11-3F4E-496D-8EDE-44E8B5396BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="232">
   <si>
     <t xml:space="preserve">
 </t>
@@ -170,62 +170,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> В Java метод не может возвращать одновременно два типа данных (int для кодов ошибок и Object для «полезного» результата).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 строке 4 возникает попытка деления на ноль.
-2 Исполняющая среда Java приостанавливает работу программы, поскольку целочисленное
-деление на ноль недопустимо.
-3 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Важно!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JVM формирует объект типа ArithmeticException, который является исключением, и выполняет так называемый бросок этого объекта, чтобы при необходимости мы могли его перехватить и обработать.
-4 Объект летит и долетает до стандартного обработчика исключений Java машины.
-5 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Важно!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Если исключение перехватывается не вашим кодом, а стандартным обработчиком, в таком случае стандартный обработчик останавливает работу вашего приложения целиком и выводит в консоль сообщение об исключении.</t>
     </r>
   </si>
   <si>
@@ -509,43 +453,7 @@
     </r>
   </si>
   <si>
-    <t>throw new illegalStateException("text");</t>
-  </si>
-  <si>
-    <t>Останавливает текущий поток однако не останавливает выполнение всех остальных потоков</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Краткое описание</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> В программе исключения могут возникать в результате неправильных действий пользователя, отсутствии необходимого ресурса на диске, или потери соединения с сервером по сети. 
-Причинами исключений при выполнении программы также могут быть ошибки программирования или неправильное использование API.
-</t>
-    </r>
-  </si>
-  <si>
     <t>Семинар 3 00 18 00</t>
-  </si>
-  <si>
-    <t>Семинар 1</t>
   </si>
   <si>
     <r>
@@ -720,10 +628,6 @@
   System.out.print(e.getMessage());  
 }</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">throw
-</t>
   </si>
   <si>
     <t>throws</t>
@@ -842,10 +746,6 @@
     </r>
   </si>
   <si>
-    <t>throw – используется для возбуждения исключения;
-"Это типо машина: я еду, все ок, но у тебя абс и подушки кстати не работают)"</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -868,96 +768,6 @@
       </rPr>
       <t>В блоке try мы пишем код, который имеет какое-то взаимоотношение/взаимодействие между собой. Никогда не указываем лишнего кода.</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Где try…catch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>прописывается в сложных методах</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, которые используют доменные области простых методов
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>throw new Exception+throws Exception</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-прописывается </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>в доменной области простых методов</t>
-    </r>
-  </si>
-  <si>
-    <t>Где try…catch?
-Где throw new Exception+throws Exception?</t>
   </si>
   <si>
     <t>Исключения и их обработка в Java</t>
@@ -1096,19 +906,7 @@
 2 catch — перехват исключения указанного типа (или его наследника) с целью обработать возникшую ошибочную ситуацию</t>
   </si>
   <si>
-    <t>catch (ArithmeticException e){
-  e.printStackTrace();
-}</t>
-  </si>
-  <si>
     <t>e.printStackTrace();</t>
-  </si>
-  <si>
-    <t>e - экземпляр ошибки
-printStackTrace() - возвращает очередь возникших исключений</t>
-  </si>
-  <si>
-    <t>Error - это ошибки со стороны JVM. Их невозможно обработать, но можно залогировать.</t>
   </si>
   <si>
     <t>00 13 00
@@ -1220,9 +1018,6 @@
     <t>Exception - Иерархия исключений</t>
   </si>
   <si>
-    <t>Обработка несольких блоков Exception</t>
-  </si>
-  <si>
     <t>00 31 53</t>
   </si>
   <si>
@@ -1474,70 +1269,6 @@
   <si>
     <t>Класс не найден.
 Например, когда отсутствует ссылка на указанный класс. Обычно такая ошибка появляется при активном использовании библиотек и систем построения архитектуры Maven, если зависимости настроены неправильно. (Ожидается, что какой-то класс был подключен библиотекой, а фактически данный класс не попал внутрь нашего приложения)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">+-- ReflectiveOperationException
-      +-- NoSuchFieldException
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      +-- ClassNotFoundException</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      +-- IllegalAccessException
-      +-- NoSuchMethodException
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">+--SQLException
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> +--IOException
-      +-- FileNotFoundException
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      +-- MalformedURLException
-      +-- UnkownHostException
-      +-- EOFException</t>
-    </r>
   </si>
   <si>
     <t>UnsupportedOperationException</t>
@@ -1681,46 +1412,11 @@
 }</t>
   </si>
   <si>
-    <t>До</t>
-  </si>
-  <si>
-    <t>После</t>
-  </si>
-  <si>
-    <t>//метод считывает строку с клавиатуры
-public String input() throws MyException {
-      BufferedReader reader = new BufferedReader(new InputStreamReader(System.in));
-    String s = null;</t>
-  </si>
-  <si>
     <t xml:space="preserve">    if (s.equals("")) {
         throw new MyException("String can not be empty!");
     }
     return s;
 }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    try {
-        s = reader.readLine();
-    } catch (IOException e) {
-        System.out.println(e.getMessage());
-    } finally {
-        try {
-            reader.close();
-        } catch (IOException e) {
-            System.out.println(e.getMessage());
-        }
-    }</t>
-  </si>
-  <si>
-    <t>Блок finally обычно используется для того, чтобы закрыть открытые в блоке try потоки или освободить ресурсы. Однако при написании программы не всегда возможно уследить за закрытием всех ресурсов. Для облегчения нашей жизни разработчики Java предложили нам конструкцию try-with-resources, которая автоматически закрывает ресурсы, открытые в блоке try.
-Наш первый пример можно переписать так с помощью try-with-resources:</t>
-  </si>
-  <si>
-    <t>try(...) {</t>
-  </si>
-  <si>
-    <t>Пример (смотри ниже)</t>
   </si>
   <si>
     <t>`https://javarush.com/groups/posts/isklyucheniya-java</t>
@@ -2029,9 +1725,6 @@
     <t>00 12 56 - 00 26 00</t>
   </si>
   <si>
-    <t>Создание нового типа исключений</t>
-  </si>
-  <si>
     <t>00 29 00</t>
   </si>
   <si>
@@ -2212,75 +1905,6 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>throws Exception,...</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">{
-  System.out.println("Save document started");
-  try(FileWriter writer = new FileWriter("test")){
-    throw new Exception("operation failed");
-  } catch (Exception e){
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">throw new RuntimeException(e); </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>//в этом случае мы получаем необработанную ошибку, пользователь опять не знает он ней, однако в классе более высокого порядка мы можем обработать ее. Однако мы не всегда хотим бросать именно RuntimeException (например нам хочется отслежить именно IOException)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-  }
-}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">public void save() </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>throws IOException,...</t>
     </r>
     <r>
@@ -2425,64 +2049,6 @@
     <t>Последний вариант</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">public void save() </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>throws IOException,...</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">{
-  System.out.println("Save document started");
-  try(FileWriter writer = new FileWriter("test")){
-    throw new Exception("operation failed");
-  } catch (IOException e) {
-  System.out.println(e.getMessage()); </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">//тут может быть логирование исключений для разработчиков
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  throw e;
-  }
-}</t>
-    </r>
-  </si>
-  <si>
     <t>1 Создать новый класс 
 2 Унаследовать его от существующего типа исключения 
 3 Будет ли созданное исключение Checked или Unchecked зависит от типа родителя</t>
@@ -2495,30 +2061,6 @@
   </si>
   <si>
     <t>В данном примере так как RuntimeException unchecked, то и MyException будет тоже unchecked</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Очень важно!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Оборачивание ошибки в unchecked exception говорит о том, что мы хотим пренебречь какой-то определенной ситуацией, что является грубой ошибкой и недоработкой. Таким образом, все исключения мы обязаны оборачивать в checked exceptions, при обращении к которым JVM заставит (на этапе компляции сообщит нам о них - через подчеркивания) нас выкинуть их на класс выше, а в классе выше сообщить о необходимости их обработать</t>
-    </r>
   </si>
   <si>
     <r>
@@ -3037,17 +2579,1926 @@
       <t>, который затем передается в поле exception)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Краткое описание
+checked exceptions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> В программе исключения могут возникать в результате неправильных действий пользователя, отсутствии необходимого ресурса на диске, или потери соединения с сервером по сети. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unchecked exceptions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Причинами исключений при выполнении программы также могут быть ошибки программирования или неправильное использование API.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">throw
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Способ вызова:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+throw new illegalStateException("text");</t>
+    </r>
+  </si>
+  <si>
+    <t>throw – используется для возбуждения исключения;
+Останавливает текущий поток однако не останавливает выполнение всех остальных потоков
+"Это типо машина: я еду, все ок, но у тебя абс и подушки кстати не работают)"</t>
+  </si>
+  <si>
+    <t>Пример - NumberFormatException e</t>
+  </si>
+  <si>
+    <t>Пример - IndexOutOfBoundsException e
+Пример - ArithmeticException</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    public static void main(String[] args) {
+        Task1 tk = new Task1();
+        int[] myArray = new int[]{1, 1, 1, 1, 1};
+        try {
+            tk.methodWithIndexOutOfBounds(myArray);
+        } catch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IndexOutOfBoundsException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) {
+            System.out.printf("Разработчик придумал первый метод из трех, которые требуются по таску - Ave Geekbrains! - %s \n", e);
+        }
+        try {
+            tk.methodWithArithmeticException();
+        } catch (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ArithmeticException e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) {
+            System.out.printf("Никому нельзя делить на 0, а тебе всё можно - %s \n", e);
+        }
+    }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    public void </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>methodWithIndexOutOfBounds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(int[] someArray) throws </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IndexOutOfBoundsException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {
+        System.out.println(someArray[someArray.length]);
+    }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    public void </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>methodWithArithmeticException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">() throws </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ArithmeticException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {
+        System.out.println(1 / 0);
+    }</t>
+    </r>
+  </si>
+  <si>
+    <t>Методы с вызовом IndexOutOfBoundsException, ArithmeticException</t>
+  </si>
+  <si>
+    <t>Методы с вызовом NumberFormatException</t>
+  </si>
+  <si>
+    <t>Создание нового типа исключений/Создание кастомных исключений/MyException</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void main(String[] args) {
+        Task1 tk = new Task1();
+        try {
+            tk.userInput();
+        } catch (IOException e) {
+            throw new RuntimeException(e);
+        }
+    }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    public void userInput() throws IOException {
+        InputStreamReader inputSys = new InputStreamReader(System.in);
+        BufferedReader br = new BufferedReader(inputSys);
+        float userFloatInput = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Float.parseFloat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(br.readLine());
+        System.out.println(userFloatInput);
+    }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> при вводе не числа, а строки или пустой строки, возвращается NumberFormatException</t>
+    </r>
+  </si>
+  <si>
+    <t>Поля класса Exception</t>
+  </si>
+  <si>
+    <t>Семинар 1 Тестровщик</t>
+  </si>
+  <si>
+    <t>Семинар 1 Программист</t>
+  </si>
+  <si>
+    <t>на примере Arithmeticexception / by zero</t>
+  </si>
+  <si>
+    <t>00 19 00</t>
+  </si>
+  <si>
+    <t>Exception in thread "main" java.lang.ArithmeticException: / by zero
+at ru.gb.jseminar.Task0.main(Task0.java.10)</t>
+  </si>
+  <si>
+    <t>e.getClass()</t>
+  </si>
+  <si>
+    <t>e.getMessage()</t>
+  </si>
+  <si>
+    <t>Выводит:
+/ by zero</t>
+  </si>
+  <si>
+    <t>Выводит:
+class java.lang.ArithmeticException</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Выводит комбинацию:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at ru.gb.jseminar.Task0.main(Task0.java.10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e.getMessage()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">e.getClass()
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Следующая часть сообщения может заниматься несколько десятков строчек:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at ru.gb.jseminar.Task0.main(Task0.java.10)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>При использовании printStackTace() вся информация об исключениях указывается в самом низу консоли вне зависимости от расположения данной команды в коде (хоть в начале, хоть по середине, однако всегда вывод результата этой команды будет в самим низу консоли)</t>
+    </r>
+  </si>
+  <si>
+    <t>00 25 00</t>
+  </si>
+  <si>
+    <t>История развития ислючений</t>
+  </si>
+  <si>
+    <t>Коды ошибок</t>
+  </si>
+  <si>
+    <t>Сообщения об ошибках на английском языке</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Вариант 1
+Вместе с кодам исключений создавались и карты исключений, в которых давались определения различным нумерациям исключений.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Данный подход был сложен в поддержании, так как эти карты тяжело было обновлять (код ошибки - определение), коды ошибок никак не были привязаны к существующим проектам, в которых они использовались, при изменении проекта (дополнение другими проектом итд) коды ошибок могли пересекаться, но означать разный смысл)</t>
+    </r>
+  </si>
+  <si>
+    <t>Вариант 2
+Вместо кодов ошибок стали писать английское обозначение того или иного исключения, для того чтобы администраторы ПО могли на человеческом языке понять, что и где прозошло в программе без необходимости прибегать к картам исключений</t>
+  </si>
+  <si>
+    <t>00 33 00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class Task0{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  private final static String EXCEPTION_MSG = "Dividing by null";
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  public static void main(String[] args) {
+    Logger glogger = Logger.getLogger(Task0.class.getName());
+    try{
+      int i = 1/0;
+      } catch (Exception e) {
+        logger.severe(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EXCEPTION_MSG)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
+      }
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class Task0{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  private final static String CODE_EXCEPTION = "100";</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  public static void main(String[] args) {
+    Logger glogger = Logger.getLogger(Task0.class.getName());
+    try{
+      int i = 1/0;
+      } catch (Exception e) {
+        logger.severe(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CODE_EXCEPTION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);
+      }
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Вариант 3
+1 Директория проекта
+2 папка main (нажимаем правой кнопкой мыши -&gt; new/new Directory/resources)
+3 папка resources (new/Resource Bundle -&gt; указываем наименование файла messages.properties)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Для подключения директории resources требуется Spring
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> task0.exception.dividing-on-null-message - это ключ, по которому происходит забор значения, которое ему присвоено. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Название ключа может быть любым, главное конкретным - соответствующим конкретному исключению в конкретном проекте
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Таким образом можно создавать неограниченное количество файлов в директории resources на разных языках</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сообщения об ошибках на любых языках через файл properties
+messages.properties
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Файл properties имеет широкое применеие, в частности для того, чтобы передавать в программу некие предварительные данные/константы итп (конфигурации или описание ошибок/исключений). Эти данные подгружаются из файла properties</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+-- ReflectiveOperationException (all checked)
+      +-- NoSuchFieldException
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      +-- ClassNotFoundException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      +-- IllegalAccessException
+      +-- NoSuchMethodException
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+--SQLException
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +--IOException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  (all checked)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      +-- FileNotFoundException
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      +-- MalformedURLException
+      +-- UnkownHostException
+      +-- EOFException</t>
+    </r>
+  </si>
+  <si>
+    <t>Как правильно создавать новые методы</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Данный метод выбрасывает следующие unchecked exceptions:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UnsupportedOperationException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - if the add operation is not supported by this collection
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ClassCastException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - if the class of the specified element prevents it from being added to this collection
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NullPointerException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - if the specified element is null and this collection does not permit null elements
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IllegalArgumentException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - if some property of the element prevents it from being added to this collection
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IllegalStateException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - if the element cannot be added at this time due to insertion restrictions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Чтобы любой создаваемый метод описывал максимально широкую вариацию исключений, которые могут случиться.</t>
+    </r>
+  </si>
+  <si>
+    <t>00 56 00</t>
+  </si>
+  <si>
+    <t>01 00 00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Правило 1 Описание всех возможных исключений</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Пример метода add класса ArrayList&lt;&gt;()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Правило 2 Валидация данных</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Всегда необходимо валидировать входные данные (например через if)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Всегда необходимо проверять входные данные, которые передаются в новый метод.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Это самый сильный способ предотвращения вызова исключений, а также необходимости обработки таких исключений. Тем не менее подход к валидации данных (через if или через try) зависит от ТЗ от аналитика.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> чаще всего выбор между if  и try определяется дальнейшей логикой, которая не должна страдать из-за валидации данных через if, а не try throw</t>
+    </r>
+  </si>
+  <si>
+    <t>01 10 00</t>
+  </si>
+  <si>
+    <t>Сервисы для логирования исключений и не только</t>
+  </si>
+  <si>
+    <t>01 20 00</t>
+  </si>
+  <si>
+    <t>kibana, elastic search
+эти сторонние вебсервисы подключаются к созданным проектам через Spring зависимости, а также открытые порты для того, чтобы данные вебсервисы могли слушать любые поступающие данные на файлы логов.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Создание собственных исключений
+public class SavedException extends IOException {
+  private Date startDate;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  private final static String SAVED_EXCEPTION_MSG = "Ничего не получилось";</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  public SavedException(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date startDate,   Exception e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) {
+    super(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SAVED_EXCEPTION_MSG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,e);
+    this.startDate = startDate;
+  }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Вариант 4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> При создании собственных исключений правилом хорошего тона является создание константы с оповестительным сообщением, для того чтобы при вызове конструктора того или иного собственного исключения не было возможности редоактировать текст сообщения об ошибке</t>
+    </r>
+  </si>
+  <si>
+    <t>Создание кастомных исключений
+Самый правильный вариант</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  //метод считывает строку с клавиатуры
+public String input() throws MyException {
+      BufferedReader reader = new BufferedReader(new InputStreamReader(System.in));
+    String s = null;
+  try {
+        s = reader.readLine();
+    } catch (IOException e) {
+        System.out.println(e.getMessage());
+    } finally {
+        try {
+            reader.close();
+        } catch (IOException e) {
+            System.out.println(e.getMessage());
+        }
+    }</t>
+  </si>
+  <si>
+    <t>До try без ресурсов, но с finally</t>
+  </si>
+  <si>
+    <t>После try с ресурсами, но без finally</t>
+  </si>
+  <si>
+    <t>Иерархия обработки нескольких блоков Exception</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Файл messages
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>task0.exception.dividing-on-null-message=Деление на ноль</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+public class Task0{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  @Value("task0.exception.dividing-on-null-message")
+  private final String ERROR_MSG;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  public static void main(String[] args) {
+    Logger glogger = Logger.getLogger(Task0.class.getName());
+    try{
+      int i = 1/0;
+      } catch (Exception e) {
+        logger.severe(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ERROR_MSG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//оптимальнее использовать логирование с подключенным сервисом для логирования (см ниже) kibana, elastic search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      }
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Бросание (throw) unchecked исключений говорит о том, что мы хотим пренебречь какой-то определенной ситуацией, что является грубой ошибкой и недоработкой. Таким образом, все исключения мы обязаны бросать (throw) в checked exceptions, при обращении к которым JVM заставит (на этапе компляции сообщит нам о них - через подчеркивания) нас выкинуть их на класс выше, а в классе выше сообщить о необходимости их обработать</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public void save() </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>throws IOException,...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{
+  System.out.println("Save document started");
+  try(FileWriter writer = new FileWriter("test")){
+    throw new Exception("operation failed");
+  } catch (IOException e) {
+  System.out.println(e.getMessage()); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">//тут может быть логирование исключений для разработчиков
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>throw e;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public void save() </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>throws ...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {
+  System.out.println("Save document started");
+  try(FileWriter writer = new FileWriter("test")){
+    throw new Exception("operation failed");
+  } catch (Exception e){
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>throw new RuntimeException(e</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//в этом случае мы получаем необработанную ошибку, пользователь опять не знает о ней, однако в классе более высокого порядка мы можем обработать ее. Однако мы не всегда хотим бросать именно RuntimeException (например нам хочется отслежить именно IOException)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Error - это ошибки со стороны JVM. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Их невозможно обработать</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, но можно залогировать.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В случаях, когда используется несколько catch в одном блоке try, то помимо соблюдения обязательного вызова иерархии исключений, обычно также всегда в конце ставится крайний/самый общий catch с сообщение e.getstacktrace()
+try{
+} catch (ArithmeticExcepetion e) {
+  sout();
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>} catch (Exception e) {
+  sout(e.getStackTrace());
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Правило - всегда ставим блок catch с общим Exception и e.getStackTrace!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 строке 4 возникает попытка деления на ноль.
+2 Исполняющая среда Java приостанавливает работу программы, поскольку целочисленное деление на ноль недопустимо.
+3 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JVM формирует объект типа ArithmeticException, который является исключением, и выполняет так называемый бросок этого объекта, чтобы при необходимости мы могли его перехватить и обработать.
+4 Объект летит и долетает до стандартного обработчика исключений Java машины.
+5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Если исключение перехватывается не вашим кодом, а стандартным обработчиком, в таком случае стандартный обработчик останавливает работу вашего приложения целиком и выводит в консоль сообщение об исключении.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Даже при корректной обработке и бросания exceptions из одного микросервиса в другой (так что бы и пользователь их увидел, и администратор в логах) возможен риск, что каждый последующий микросервис обработает и залогирует это исключение по-разному (из-за этого администрирование программы/поиск изначального микросервиса, виновного в вызове исключения, может сильно усложниться)</t>
+    </r>
+  </si>
+  <si>
+    <t>При объявлении полей конструкторов без присвоения им определенных изначальных значений JVM все равно сможет скопилировать программу. Хотя при объявлении новой переменной JVM всегда попросит присвоить ей начальное значение.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> В тех случаях, когда мы решаем, обработав исключение в одном микросервисе, выбросить исключение в другой микросервис, происходит разрушение стэка-вызова-этих-микросервисов (уничтожаются все объекты, которые были созданы в рамках этого стека-вызова). В зависимости от решения разработчика, разрушение стэка вызова может происходить вплоть до разрушения стэка всего приложения - в этом случае ОС уничтожает данный поток.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AutoCloseAble могут становиться не только классы, работающие с файлами, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>но вообще любые классы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (но чаще конечно, такие классы которые используются какие-либо ресурсы txt/html/json…). В таком случае данные классы обязаны быть обработаны на исключение IOExcpetion.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> для AutoCloseAble можно прибегать к throw IOException, либо любого другого Exception</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3184,8 +4635,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3231,6 +4691,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3327,7 +4793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3341,194 +4807,260 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3862,13 +5394,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>154216</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>9071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2934738</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>1986642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3906,13 +5438,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>154215</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>72572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3125739</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>1415144</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3950,13 +5482,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>607787</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>130561</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2276929</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>1263007</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3980,7 +5512,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3124696" y="44442016"/>
+          <a:off x="3120573" y="66678561"/>
           <a:ext cx="1669142" cy="1132446"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3994,13 +5526,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>45357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1560285</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>678018</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4038,13 +5570,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>45358</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2521857</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>986653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4082,13 +5614,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>108858</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2472202</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>870857</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4126,13 +5658,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>63501</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>36286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3457469</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>1632857</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4170,13 +5702,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3281068</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>879929</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4214,13 +5746,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>72572</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>36285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3492500</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>700271</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4258,13 +5790,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>93044</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>37352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2286000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>1381173</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4288,7 +5820,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2605830" y="73769923"/>
+          <a:off x="2605830" y="94225995"/>
           <a:ext cx="2192956" cy="1343821"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4302,13 +5834,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>61899</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>62967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4947001</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>1632857</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4345,15 +5877,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>455705</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>806822</xdr:rowOff>
+      <xdr:colOff>92848</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>797751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3376855</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>1441855</xdr:rowOff>
+      <xdr:colOff>4894090</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>1841500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4376,8 +5908,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6506881" y="71553293"/>
-          <a:ext cx="2921150" cy="635033"/>
+          <a:off x="6134419" y="94986394"/>
+          <a:ext cx="4801242" cy="1043749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4389,15 +5921,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>172357</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>90714</xdr:rowOff>
+      <xdr:colOff>154215</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2449286</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>1063183</xdr:rowOff>
+      <xdr:colOff>4172858</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>1779849</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4420,8 +5952,184 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6213928" y="81760785"/>
-          <a:ext cx="2276929" cy="972469"/>
+          <a:off x="6195786" y="100157643"/>
+          <a:ext cx="4018643" cy="1716349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4889500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>693568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C0A2DC6-ED06-43AA-B90A-D10416EA789F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6068786" y="33827357"/>
+          <a:ext cx="4862285" cy="593782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>36286</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2526064</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1242786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FBA3C0A-3625-43F5-B37D-995AC7749D4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="35251571"/>
+          <a:ext cx="2489778" cy="1197429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>39221</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>640603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3454352</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1763059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D093CF1C-CCC6-4CF1-A9DF-5697585A7C28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2556809" y="46397956"/>
+          <a:ext cx="3415131" cy="1122456"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>164111</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>53603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2485571</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1762121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Рисунок 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E3009F5-D1E6-4648-8686-3936BCF194F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2676897" y="47787460"/>
+          <a:ext cx="2321460" cy="1708518"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4699,10 +6407,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V113"/>
+  <dimension ref="A2:V128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4811,7 +6519,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>18</v>
@@ -4838,7 +6546,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="10"/>
       <c r="P13" s="1"/>
@@ -4865,60 +6573,60 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="174" x14ac:dyDescent="0.35">
-      <c r="C16" s="10" t="s">
-        <v>19</v>
+      <c r="C16" s="89" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
@@ -4942,7 +6650,7 @@
     </row>
     <row r="25" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="C25" s="10"/>
       <c r="P25" s="1"/>
@@ -4951,900 +6659,1072 @@
     </row>
     <row r="26" spans="1:22" ht="232" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="C26" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="232" x14ac:dyDescent="0.35">
+      <c r="F26" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="I26" s="36"/>
+    </row>
+    <row r="27" spans="1:22" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="19"/>
       <c r="B27" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="F27" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="I27" s="38"/>
+    </row>
+    <row r="28" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I28" s="21"/>
+    </row>
+    <row r="29" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="I29" s="38"/>
+    </row>
+    <row r="30" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+      <c r="A30" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A31" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="30"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A32" s="19"/>
+      <c r="B32" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="21"/>
-    </row>
-    <row r="28" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="25" t="s">
+      <c r="D32" s="30"/>
+    </row>
+    <row r="33" spans="1:22" ht="276" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="22"/>
+      <c r="B33" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="35"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A35" s="4"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="U35" s="6"/>
+    </row>
+    <row r="36" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="P36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A37" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A38" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="D39" s="21"/>
+    </row>
+    <row r="40" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" s="21"/>
+    </row>
+    <row r="41" spans="1:22" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" s="38"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A42" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="203" x14ac:dyDescent="0.35">
+      <c r="A43" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="21"/>
+    </row>
+    <row r="44" spans="1:22" ht="203" x14ac:dyDescent="0.35">
+      <c r="A44" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="21"/>
+    </row>
+    <row r="45" spans="1:22" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A48" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="36" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="69" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" s="21"/>
+    </row>
+    <row r="50" spans="1:22" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="B50" s="33"/>
+      <c r="C50" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A51" s="63"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A57" s="4"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="U57" s="6"/>
+    </row>
+    <row r="58" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="P58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="2"/>
+    </row>
+    <row r="59" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="16"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A60" s="29"/>
+      <c r="D60" s="30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A61" s="29"/>
+      <c r="D61" s="30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A62" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="21"/>
+    </row>
+    <row r="63" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A66" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="A68" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A70" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="30"/>
+    </row>
+    <row r="71" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+      <c r="A71" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" s="33"/>
+      <c r="C72" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A73" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" s="16"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="36"/>
+    </row>
+    <row r="74" spans="1:21" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="22"/>
+      <c r="B74" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" s="37"/>
+      <c r="D74" s="38"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A75" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" s="16"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="36"/>
+    </row>
+    <row r="76" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+      <c r="A76" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" s="33"/>
+      <c r="C77" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" s="38"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C79"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A80" s="4"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="U80" s="6"/>
+    </row>
+    <row r="81" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="24"/>
-    </row>
-    <row r="30" spans="1:22" ht="218" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="174" x14ac:dyDescent="0.35">
-      <c r="A31" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="55" t="s">
+      <c r="C81" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="P81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="2"/>
+    </row>
+    <row r="82" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A82" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D83" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A86" s="4"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="U86" s="6"/>
+    </row>
+    <row r="87" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="P87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="2"/>
+    </row>
+    <row r="88" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B88" s="16"/>
+      <c r="C88" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D88" s="36"/>
+    </row>
+    <row r="89" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="19"/>
+      <c r="C89" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D89" s="21"/>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A90" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" s="36"/>
+    </row>
+    <row r="91" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="B91" s="77"/>
+      <c r="C91" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="B92" s="33"/>
+      <c r="C92" s="79" t="s">
+        <v>225</v>
+      </c>
+      <c r="D92" s="38"/>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A93" s="25"/>
+      <c r="C93" s="25"/>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A94" s="4"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="U94" s="6"/>
+    </row>
+    <row r="95" spans="1:22" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="P95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="2"/>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A96" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B96" s="16"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="36"/>
+    </row>
+    <row r="97" spans="1:22" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="22"/>
+      <c r="B97" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C97" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D97" s="38"/>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A98" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B98" s="16"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="36"/>
+    </row>
+    <row r="99" spans="1:22" ht="319" x14ac:dyDescent="0.35">
+      <c r="A99" s="19"/>
+      <c r="B99" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A100" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C100" s="74" t="s">
+        <v>217</v>
+      </c>
+      <c r="D100" s="43" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" ht="261" x14ac:dyDescent="0.35">
+      <c r="A101" s="29"/>
+      <c r="C101" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="D101" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="44"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D102" s="35"/>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A103" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B103" s="16"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="36"/>
+    </row>
+    <row r="104" spans="1:22" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="22"/>
+      <c r="B104" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D104" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A106" s="4"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="6"/>
+      <c r="U106" s="6"/>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="P107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="2"/>
+    </row>
+    <row r="108" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A109" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B109" s="16"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A110" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B110" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="80" t="s">
+        <v>231</v>
+      </c>
+      <c r="B111" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D111" s="38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A112" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B112" s="16"/>
+      <c r="C112" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="D112" s="36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A113" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C113" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D113" s="21"/>
+    </row>
+    <row r="114" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A114" s="19"/>
+      <c r="C114" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="D114" s="21"/>
+    </row>
+    <row r="115" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="19"/>
+      <c r="C115" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="D115" s="21"/>
+    </row>
+    <row r="116" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A116" s="19"/>
+      <c r="C116" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="D116" s="21"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C117" s="50"/>
+      <c r="D117" s="21"/>
+    </row>
+    <row r="118" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A118" s="19"/>
+      <c r="B118" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C118" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="D118" s="52" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="84" t="s">
+        <v>221</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D119" s="30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A120" s="84" t="s">
+        <v>228</v>
+      </c>
+      <c r="B120" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C120" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D120" s="56" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="84" t="s">
+        <v>230</v>
+      </c>
+      <c r="B121" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C121" s="54"/>
+      <c r="D121" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="F121" s="90" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A122" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="B122" s="16"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A123" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C123" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A32" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="31"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A33" s="19"/>
-      <c r="B33" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="31"/>
-    </row>
-    <row r="34" spans="1:22" ht="276" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="22"/>
-      <c r="B34" s="34" t="s">
+      <c r="D123" s="21"/>
+    </row>
+    <row r="124" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A124" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C124" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="D34" s="36"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A38" s="4"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="U38" s="6"/>
-    </row>
-    <row r="39" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="P39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="2"/>
-    </row>
-    <row r="40" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A41" s="30"/>
-      <c r="D41" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A42" s="30"/>
-      <c r="D42" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A43" s="32" t="s">
+      <c r="D124" s="21"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="21"/>
-    </row>
-    <row r="44" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A47" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A51" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="31"/>
-    </row>
-    <row r="52" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A52" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D53" s="36" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A54" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="37"/>
-    </row>
-    <row r="55" spans="1:22" ht="160" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="22"/>
-      <c r="B55" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="38"/>
-      <c r="D55" s="39"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A56" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="37"/>
-    </row>
-    <row r="57" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A57" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57" s="31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="34"/>
-      <c r="C58" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" s="39"/>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C62"/>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A63" s="4"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
-      <c r="U63" s="6"/>
-    </row>
-    <row r="64" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="P64" s="1"/>
-      <c r="U64" s="1"/>
-      <c r="V64" s="2"/>
-    </row>
-    <row r="65" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="A65" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C65" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" ht="131" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C66" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="D66" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A69" s="4"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
-      <c r="U69" s="6"/>
-    </row>
-    <row r="70" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="P70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="V70" s="2"/>
-    </row>
-    <row r="71" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="D71" s="37"/>
-    </row>
-    <row r="72" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A72" s="19"/>
-      <c r="C72" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" s="21"/>
-      <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D73" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="B74" s="34"/>
-      <c r="C74" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="D74" s="50" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A75" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="D75" s="37"/>
-    </row>
-    <row r="76" spans="1:22" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" s="34"/>
-      <c r="C76" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D76" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A77" s="26"/>
-      <c r="C77" s="26"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A78" s="4"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
-      <c r="U78" s="6"/>
-    </row>
-    <row r="79" spans="1:22" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="P79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="2"/>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A80" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" s="16"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="37"/>
-    </row>
-    <row r="81" spans="1:22" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="22"/>
-      <c r="B81" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C81" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="D81" s="39"/>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A82" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" s="16"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="37"/>
-    </row>
-    <row r="83" spans="1:22" ht="319" x14ac:dyDescent="0.35">
-      <c r="A83" s="19"/>
-      <c r="B83" s="2" t="s">
+      <c r="D125" s="21"/>
+    </row>
+    <row r="126" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A126" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C126" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="D126" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D83" s="21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A84" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C84" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="D84" s="45" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A85" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="B85" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C85" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="D85" s="31"/>
-    </row>
-    <row r="86" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="30"/>
-      <c r="B86" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C86" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D86" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="46"/>
-      <c r="B87" s="35"/>
-      <c r="C87" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D87" s="36"/>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A88" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B88" s="16"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="37"/>
-    </row>
-    <row r="89" spans="1:22" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="22"/>
-      <c r="B89" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C89" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="D89" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A91" s="4"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="6"/>
-      <c r="R91" s="6"/>
-      <c r="S91" s="6"/>
-      <c r="U91" s="6"/>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C92" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="P92" s="1"/>
-      <c r="U92" s="1"/>
-      <c r="V92" s="2"/>
-    </row>
-    <row r="93" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A94" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B94" s="16"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="37" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="30" t="s">
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="D127" s="21"/>
+    </row>
+    <row r="128" spans="1:6" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="B128" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="C128" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C95" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="D95" s="21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="52"/>
-      <c r="B96" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C96" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="D96" s="39" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A97" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="B97" s="16"/>
-      <c r="C97" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="D97" s="37" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A98" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B98" s="57"/>
-      <c r="C98" s="58" t="s">
+      <c r="D128" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D98" s="21"/>
-    </row>
-    <row r="99" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A99" s="19"/>
-      <c r="B99" s="57"/>
-      <c r="C99" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="D99" s="21"/>
-    </row>
-    <row r="100" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="19"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="D100" s="21"/>
-    </row>
-    <row r="101" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="19"/>
-      <c r="B101" s="57"/>
-      <c r="C101" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="D101" s="21"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="B102" s="57"/>
-      <c r="C102" s="58"/>
-      <c r="D102" s="21"/>
-    </row>
-    <row r="103" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A103" s="19"/>
-      <c r="B103" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="C103" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="D103" s="60" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="B104" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="C104" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="D104" s="31" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="30"/>
-      <c r="B105" s="61" t="s">
-        <v>174</v>
-      </c>
-      <c r="C105" s="63" t="s">
-        <v>173</v>
-      </c>
-      <c r="D105" s="64" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="22"/>
-      <c r="B106" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C106" s="62"/>
-      <c r="D106" s="36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B107" s="16"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="37" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A108" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B108" s="57"/>
-      <c r="C108" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="D108" s="21"/>
-    </row>
-    <row r="109" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A109" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="B109" s="57"/>
-      <c r="C109" s="58" t="s">
-        <v>181</v>
-      </c>
-      <c r="D109" s="21"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="B110" s="57"/>
-      <c r="C110" s="66"/>
-      <c r="D110" s="21"/>
-    </row>
-    <row r="111" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A111" s="65" t="s">
-        <v>185</v>
-      </c>
-      <c r="B111" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="C111" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="D111" s="21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="B112" s="57"/>
-      <c r="C112" s="66"/>
-      <c r="D112" s="21"/>
-    </row>
-    <row r="113" spans="1:4" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="B113" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="C113" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="D113" s="68" t="s">
-        <v>188</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/2 четверть_4_Тестеровщик_Исключения.xlsx
+++ b/2 четверть_4_Тестеровщик_Исключения.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user0\Desktop\Homework-repo\GB_Developer_Workbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\Homework-repo\GB_Developer_Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ED2C11-3F4E-496D-8EDE-44E8B5396BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9C3201-48ED-495B-B17A-F77DC0F4AC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Название 1-3" sheetId="12" r:id="rId1"/>
@@ -4357,31 +4357,6 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> В тех случаях, когда мы решаем, обработав исключение в одном микросервисе, выбросить исключение в другой микросервис, происходит разрушение стэка-вызова-этих-микросервисов (уничтожаются все объекты, которые были созданы в рамках этого стека-вызова). В зависимости от решения разработчика, разрушение стэка вызова может происходить вплоть до разрушения стэка всего приложения - в этом случае ОС уничтожает данный поток.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Важно!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> AutoCloseAble могут становиться не только классы, работающие с файлами, </t>
     </r>
     <r>
@@ -4430,6 +4405,31 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> для AutoCloseAble можно прибегать к throw IOException, либо любого другого Exception</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> В тех случаях, когда мы решаем, обработавать исключение в одном микросервисе, выбросить исключение в другой микросервис, происходит разрушение стэка-вызова-этих-микросервисов (уничтожаются все объекты, которые были созданы в рамках этого стека-вызова). В зависимости от решения разработчика, разрушение стэка вызова может происходить вплоть до разрушения стэка всего приложения - в этом случае ОС уничтожает данный поток.</t>
     </r>
   </si>
 </sst>
@@ -4437,12 +4437,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4793,7 +4801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4807,179 +4815,194 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4988,79 +5011,61 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6410,7 +6415,7 @@
   <dimension ref="A2:V128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A123" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6572,8 +6577,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="174" x14ac:dyDescent="0.35">
-      <c r="C16" s="89" t="s">
+    <row r="16" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="C16" s="87" t="s">
         <v>227</v>
       </c>
     </row>
@@ -6892,7 +6897,7 @@
       <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:22" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="82" t="s">
+      <c r="A45" s="80" t="s">
         <v>198</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -6909,7 +6914,7 @@
       <c r="A46" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="B46" s="83" t="s">
+      <c r="B46" s="81" t="s">
         <v>214</v>
       </c>
       <c r="C46" s="72" t="s">
@@ -7334,11 +7339,10 @@
       <c r="D90" s="36"/>
     </row>
     <row r="91" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="78" t="s">
+      <c r="A91" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="B91" s="77"/>
-      <c r="C91" s="76" t="s">
+      <c r="C91" s="25" t="s">
         <v>65</v>
       </c>
       <c r="D91" s="21" t="s">
@@ -7346,11 +7350,11 @@
       </c>
     </row>
     <row r="92" spans="1:22" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="81" t="s">
+      <c r="A92" s="79" t="s">
         <v>226</v>
       </c>
       <c r="B92" s="33"/>
-      <c r="C92" s="79" t="s">
+      <c r="C92" s="77" t="s">
         <v>225</v>
       </c>
       <c r="D92" s="38"/>
@@ -7527,7 +7531,7 @@
       <c r="A110" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="B110" s="88" t="s">
+      <c r="B110" s="86" t="s">
         <v>148</v>
       </c>
       <c r="C110" s="26" t="s">
@@ -7538,8 +7542,8 @@
       </c>
     </row>
     <row r="111" spans="1:22" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="80" t="s">
-        <v>231</v>
+      <c r="A111" s="78" t="s">
+        <v>230</v>
       </c>
       <c r="B111" s="33" t="s">
         <v>20</v>
@@ -7574,21 +7578,21 @@
     </row>
     <row r="114" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A114" s="19"/>
-      <c r="C114" s="87" t="s">
+      <c r="C114" s="85" t="s">
         <v>140</v>
       </c>
       <c r="D114" s="21"/>
     </row>
     <row r="115" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A115" s="19"/>
-      <c r="C115" s="87" t="s">
+      <c r="C115" s="85" t="s">
         <v>141</v>
       </c>
       <c r="D115" s="21"/>
     </row>
     <row r="116" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A116" s="19"/>
-      <c r="C116" s="87" t="s">
+      <c r="C116" s="85" t="s">
         <v>151</v>
       </c>
       <c r="D116" s="21"/>
@@ -7613,7 +7617,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="84" t="s">
+      <c r="A119" s="82" t="s">
         <v>221</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -7627,7 +7631,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="84" t="s">
+      <c r="A120" s="82" t="s">
         <v>228</v>
       </c>
       <c r="B120" s="53" t="s">
@@ -7641,8 +7645,8 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="84" t="s">
-        <v>230</v>
+      <c r="A121" s="89" t="s">
+        <v>231</v>
       </c>
       <c r="B121" s="33" t="s">
         <v>147</v>
@@ -7651,7 +7655,7 @@
       <c r="D121" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="F121" s="90" t="s">
+      <c r="F121" s="88" t="s">
         <v>229</v>
       </c>
     </row>
@@ -7690,7 +7694,7 @@
       <c r="D125" s="21"/>
     </row>
     <row r="126" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A126" s="85" t="s">
+      <c r="A126" s="83" t="s">
         <v>159</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -7710,7 +7714,7 @@
       <c r="D127" s="21"/>
     </row>
     <row r="128" spans="1:6" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="86" t="s">
+      <c r="A128" s="84" t="s">
         <v>163</v>
       </c>
       <c r="B128" s="54" t="s">
@@ -7724,7 +7728,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/2 четверть_4_Тестеровщик_Исключения.xlsx
+++ b/2 четверть_4_Тестеровщик_Исключения.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\Homework-repo\GB_Developer_Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9C3201-48ED-495B-B17A-F77DC0F4AC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B21AE0-05E8-4F09-867E-7222C24B8EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Название 1-3" sheetId="12" r:id="rId1"/>
@@ -1491,55 +1491,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> try-with-resources применимо только для объектов с интерфейсом AutoCloseable. При попытке передать в try () обычный объект, получается ошибка на этапе компиляции.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Пример</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> описания метода close кастомного класса с интерфейсом AutoCloseable:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Важно!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> throws нужен для применения throw в коде методов, в которых может возникнуть checked exception (позволяет создать связь с другими блоками, где прописан try catch)</t>
@@ -4357,6 +4308,31 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> В тех случаях, когда мы решаем, обработавать исключение в одном микросервисе, выбросить исключение в другой микросервис, происходит разрушение стэка-вызова-этих-микросервисов (уничтожаются все объекты, которые были созданы в рамках этого стека-вызова). В зависимости от решения разработчика, разрушение стэка вызова может происходить вплоть до разрушения стэка всего приложения - в этом случае ОС уничтожает данный поток.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> AutoCloseAble могут становиться не только классы, работающие с файлами, </t>
     </r>
     <r>
@@ -4406,6 +4382,18 @@
       </rPr>
       <t xml:space="preserve"> для AutoCloseAble можно прибегать к throw IOException, либо любого другого Exception</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
   <si>
     <r>
@@ -4429,7 +4417,55 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> В тех случаях, когда мы решаем, обработавать исключение в одном микросервисе, выбросить исключение в другой микросервис, происходит разрушение стэка-вызова-этих-микросервисов (уничтожаются все объекты, которые были созданы в рамках этого стека-вызова). В зависимости от решения разработчика, разрушение стэка вызова может происходить вплоть до разрушения стэка всего приложения - в этом случае ОС уничтожает данный поток.</t>
+      <t xml:space="preserve"> try-with-resources применимо только для объектов с интерфейсом AutoCloseable. При попытке передать в try () обычный объект, получается ошибка на этапе компиляции. То если хочешь использовать try-with-resources, убедись, что объект, которые ты передаешь в ресурсы имплементирует интерфейс AutoClosable(или Closable). Интерфейс обяжет создать метод close(), в котором можно ничего не писать, или можно выкинуть еще одно исключение, чтобы уронить поток при исполнении close(). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В таком случае закроется ли ресурс???</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пример</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> описания метода close кастомного класса с интерфейсом AutoCloseable:</t>
     </r>
   </si>
 </sst>
@@ -4437,12 +4473,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4801,7 +4845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4815,179 +4859,194 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4996,76 +5055,64 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5825,7 +5872,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2605830" y="94225995"/>
+          <a:off x="2605830" y="94035495"/>
           <a:ext cx="2192956" cy="1343821"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5882,15 +5929,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>92848</xdr:colOff>
+      <xdr:colOff>74705</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>797751</xdr:rowOff>
+      <xdr:rowOff>1659537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4894090</xdr:colOff>
+      <xdr:colOff>4875947</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>1841500</xdr:rowOff>
+      <xdr:rowOff>2703286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5913,7 +5960,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6134419" y="94986394"/>
+          <a:off x="6116276" y="95657680"/>
           <a:ext cx="4801242" cy="1043749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6414,8 +6461,8 @@
   </sheetPr>
   <dimension ref="A2:V128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6578,8 +6625,8 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="C16" s="87" t="s">
-        <v>227</v>
+      <c r="C16" s="86" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="116" x14ac:dyDescent="0.35">
@@ -6655,7 +6702,7 @@
     </row>
     <row r="25" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C25" s="10"/>
       <c r="P25" s="1"/>
@@ -6676,11 +6723,11 @@
         <v>37</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I26" s="36"/>
     </row>
@@ -6694,32 +6741,32 @@
       </c>
       <c r="D27" s="21"/>
       <c r="F27" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G27" s="33"/>
       <c r="H27" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I27" s="38"/>
     </row>
     <row r="28" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A28" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B28" s="47" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I28" s="21"/>
     </row>
@@ -6727,19 +6774,19 @@
       <c r="A29" s="22"/>
       <c r="B29" s="23"/>
       <c r="C29" s="59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G29" s="62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I29" s="38"/>
     </row>
@@ -6748,7 +6795,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" s="48" t="s">
         <v>119</v>
@@ -6757,7 +6804,7 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -6776,10 +6823,10 @@
     <row r="33" spans="1:22" ht="276" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="22"/>
       <c r="B33" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D33" s="35"/>
     </row>
@@ -6809,7 +6856,7 @@
     </row>
     <row r="36" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C36" s="10"/>
       <c r="P36" s="1"/>
@@ -6818,37 +6865,37 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="36" t="s">
         <v>180</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="67" t="s">
         <v>184</v>
-      </c>
-      <c r="C39" s="67" t="s">
-        <v>185</v>
       </c>
       <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C40" s="67" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D40" s="21"/>
     </row>
@@ -6858,116 +6905,116 @@
       </c>
       <c r="B41" s="65"/>
       <c r="C41" s="65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D41" s="38"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="28"/>
       <c r="D42" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="203" x14ac:dyDescent="0.35">
       <c r="A43" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C43" s="63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D43" s="21"/>
     </row>
     <row r="44" spans="1:22" ht="203" x14ac:dyDescent="0.35">
       <c r="A44" s="64" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" s="21"/>
+    </row>
+    <row r="45" spans="1:22" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="79" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="D45" s="21" t="s">
         <v>193</v>
-      </c>
-      <c r="C44" s="63" t="s">
-        <v>195</v>
-      </c>
-      <c r="D44" s="21"/>
-    </row>
-    <row r="45" spans="1:22" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="80" t="s">
-        <v>198</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C45" s="73" t="s">
-        <v>220</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="B46" s="81" t="s">
         <v>214</v>
       </c>
+      <c r="B46" s="80" t="s">
+        <v>213</v>
+      </c>
       <c r="C46" s="72" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="28"/>
       <c r="D48" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A49" s="69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B49" s="63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C49" s="63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D49" s="21"/>
     </row>
     <row r="50" spans="1:22" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="68" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="70" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.35">
@@ -7016,13 +7063,13 @@
     <row r="60" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A60" s="29"/>
       <c r="D60" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A61" s="29"/>
       <c r="D61" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.35">
@@ -7257,7 +7304,7 @@
         <v>20</v>
       </c>
       <c r="C82" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D82" s="18" t="s">
         <v>61</v>
@@ -7328,7 +7375,7 @@
     </row>
     <row r="90" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A90" s="45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B90" s="16" t="s">
         <v>8</v>
@@ -7350,12 +7397,12 @@
       </c>
     </row>
     <row r="92" spans="1:22" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="79" t="s">
-        <v>226</v>
+      <c r="A92" s="78" t="s">
+        <v>225</v>
       </c>
       <c r="B92" s="33"/>
       <c r="C92" s="77" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D92" s="38"/>
     </row>
@@ -7439,16 +7486,16 @@
         <v>118</v>
       </c>
       <c r="C100" s="74" t="s">
+        <v>216</v>
+      </c>
+      <c r="D100" s="43" t="s">
         <v>217</v>
-      </c>
-      <c r="D100" s="43" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="261" x14ac:dyDescent="0.35">
       <c r="A101" s="29"/>
       <c r="C101" s="73" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D101" s="30" t="s">
         <v>116</v>
@@ -7529,10 +7576,10 @@
     </row>
     <row r="110" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A110" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B110" s="86" t="s">
-        <v>148</v>
+        <v>136</v>
+      </c>
+      <c r="B110" s="85" t="s">
+        <v>147</v>
       </c>
       <c r="C110" s="26" t="s">
         <v>125</v>
@@ -7541,15 +7588,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="78" t="s">
+    <row r="111" spans="1:22" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="90" t="s">
         <v>230</v>
       </c>
       <c r="B111" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C111" s="34" t="s">
-        <v>130</v>
+      <c r="C111" s="89" t="s">
+        <v>231</v>
       </c>
       <c r="D111" s="38" t="s">
         <v>129</v>
@@ -7557,14 +7604,14 @@
     </row>
     <row r="112" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B112" s="16"/>
       <c r="C112" s="48" t="s">
         <v>127</v>
       </c>
       <c r="D112" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -7572,28 +7619,28 @@
         <v>128</v>
       </c>
       <c r="C113" s="50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D113" s="21"/>
     </row>
     <row r="114" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A114" s="19"/>
-      <c r="C114" s="85" t="s">
-        <v>140</v>
+      <c r="C114" s="84" t="s">
+        <v>139</v>
       </c>
       <c r="D114" s="21"/>
     </row>
     <row r="115" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A115" s="19"/>
-      <c r="C115" s="85" t="s">
-        <v>141</v>
+      <c r="C115" s="84" t="s">
+        <v>140</v>
       </c>
       <c r="D115" s="21"/>
     </row>
     <row r="116" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A116" s="19"/>
-      <c r="C116" s="85" t="s">
-        <v>151</v>
+      <c r="C116" s="84" t="s">
+        <v>150</v>
       </c>
       <c r="D116" s="21"/>
     </row>
@@ -7607,83 +7654,83 @@
     <row r="118" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="19"/>
       <c r="B118" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="C118" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="D118" s="52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C118" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="D118" s="52" t="s">
+      <c r="D119" s="30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A120" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="B120" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="C120" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="D120" s="56" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="88" t="s">
+        <v>229</v>
+      </c>
+      <c r="B121" s="33" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="82" t="s">
-        <v>221</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D119" s="30" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="82" t="s">
-        <v>228</v>
-      </c>
-      <c r="B120" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="C120" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="D120" s="56" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="89" t="s">
-        <v>231</v>
-      </c>
-      <c r="B121" s="33" t="s">
-        <v>147</v>
       </c>
       <c r="C121" s="54"/>
       <c r="D121" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="F121" s="88" t="s">
-        <v>229</v>
+        <v>221</v>
+      </c>
+      <c r="F121" s="87" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A122" s="61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B122" s="16"/>
       <c r="C122" s="28"/>
       <c r="D122" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A123" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C123" s="50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D123" s="21"/>
     </row>
     <row r="124" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C124" s="50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D124" s="21"/>
     </row>
@@ -7694,14 +7741,14 @@
       <c r="D125" s="21"/>
     </row>
     <row r="126" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A126" s="83" t="s">
-        <v>159</v>
+      <c r="A126" s="82" t="s">
+        <v>158</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C126" s="50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D126" s="21" t="s">
         <v>82</v>
@@ -7714,21 +7761,21 @@
       <c r="D127" s="21"/>
     </row>
     <row r="128" spans="1:6" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="84" t="s">
-        <v>163</v>
+      <c r="A128" s="83" t="s">
+        <v>162</v>
       </c>
       <c r="B128" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C128" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="D128" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="C128" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="D128" s="58" t="s">
-        <v>162</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/2 четверть_4_Тестеровщик_Исключения.xlsx
+++ b/2 четверть_4_Тестеровщик_Исключения.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B21AE0-05E8-4F09-867E-7222C24B8EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6008BD1D-74B4-4EB8-9800-A4F611747205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1470,9 +1470,6 @@
     <t>Но зачем? Почему бы просто везде не ставить try-catch?</t>
   </si>
   <si>
-    <t>00 10 45</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -4468,17 +4465,54 @@
       <t xml:space="preserve"> описания метода close кастомного класса с интерфейсом AutoCloseable:</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">00 10 45
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Важно! если не нужно закрывать ресурс, но нужно поймать ошибки при его открытии. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Это еще одна разновидность оператора try. После ключевого слова try нужно добавить круглые скобки, а внутри них — создать объекты с внешними ресурсами. Для объекта, указанного в круглых скобках, компилятор сам добавит секцию finally и вызов метода close().</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4859,179 +4893,194 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5040,79 +5089,64 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6462,7 +6496,7 @@
   <dimension ref="A2:V128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6626,7 +6660,7 @@
     </row>
     <row r="16" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="C16" s="86" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="116" x14ac:dyDescent="0.35">
@@ -6702,7 +6736,7 @@
     </row>
     <row r="25" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C25" s="10"/>
       <c r="P25" s="1"/>
@@ -6723,11 +6757,11 @@
         <v>37</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I26" s="36"/>
     </row>
@@ -6741,32 +6775,32 @@
       </c>
       <c r="D27" s="21"/>
       <c r="F27" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G27" s="33"/>
       <c r="H27" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I27" s="38"/>
     </row>
     <row r="28" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A28" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B28" s="47" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I28" s="21"/>
     </row>
@@ -6774,19 +6808,19 @@
       <c r="A29" s="22"/>
       <c r="B29" s="23"/>
       <c r="C29" s="59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G29" s="62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I29" s="38"/>
     </row>
@@ -6795,7 +6829,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" s="48" t="s">
         <v>119</v>
@@ -6804,7 +6838,7 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -6823,10 +6857,10 @@
     <row r="33" spans="1:22" ht="276" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="22"/>
       <c r="B33" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D33" s="35"/>
     </row>
@@ -6856,7 +6890,7 @@
     </row>
     <row r="36" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C36" s="10"/>
       <c r="P36" s="1"/>
@@ -6865,37 +6899,37 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="36" t="s">
         <v>179</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="67" t="s">
         <v>183</v>
-      </c>
-      <c r="C39" s="67" t="s">
-        <v>184</v>
       </c>
       <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C40" s="67" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D40" s="21"/>
     </row>
@@ -6905,116 +6939,116 @@
       </c>
       <c r="B41" s="65"/>
       <c r="C41" s="65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D41" s="38"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="28"/>
       <c r="D42" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="203" x14ac:dyDescent="0.35">
       <c r="A43" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C43" s="63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D43" s="21"/>
     </row>
     <row r="44" spans="1:22" ht="203" x14ac:dyDescent="0.35">
       <c r="A44" s="64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C44" s="63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:22" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A45" s="79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C45" s="73" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B46" s="80" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C46" s="72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="28"/>
       <c r="D48" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A49" s="69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B49" s="63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C49" s="63" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D49" s="21"/>
     </row>
     <row r="50" spans="1:22" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="68" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.35">
@@ -7063,13 +7097,13 @@
     <row r="60" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A60" s="29"/>
       <c r="D60" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A61" s="29"/>
       <c r="D61" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.35">
@@ -7304,7 +7338,7 @@
         <v>20</v>
       </c>
       <c r="C82" s="75" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D82" s="18" t="s">
         <v>61</v>
@@ -7375,7 +7409,7 @@
     </row>
     <row r="90" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A90" s="45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B90" s="16" t="s">
         <v>8</v>
@@ -7398,11 +7432,11 @@
     </row>
     <row r="92" spans="1:22" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="78" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B92" s="33"/>
       <c r="C92" s="77" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D92" s="38"/>
     </row>
@@ -7486,16 +7520,16 @@
         <v>118</v>
       </c>
       <c r="C100" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="D100" s="43" t="s">
         <v>216</v>
-      </c>
-      <c r="D100" s="43" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="261" x14ac:dyDescent="0.35">
       <c r="A101" s="29"/>
       <c r="C101" s="73" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D101" s="30" t="s">
         <v>116</v>
@@ -7576,10 +7610,10 @@
     </row>
     <row r="110" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A110" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B110" s="85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C110" s="26" t="s">
         <v>125</v>
@@ -7590,28 +7624,28 @@
     </row>
     <row r="111" spans="1:22" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="90" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B111" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C111" s="89" t="s">
+        <v>230</v>
+      </c>
+      <c r="D111" s="35" t="s">
         <v>231</v>
-      </c>
-      <c r="D111" s="38" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B112" s="16"/>
       <c r="C112" s="48" t="s">
         <v>127</v>
       </c>
       <c r="D112" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -7619,28 +7653,28 @@
         <v>128</v>
       </c>
       <c r="C113" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D113" s="21"/>
     </row>
     <row r="114" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A114" s="19"/>
       <c r="C114" s="84" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D114" s="21"/>
     </row>
     <row r="115" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A115" s="19"/>
       <c r="C115" s="84" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D115" s="21"/>
     </row>
     <row r="116" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A116" s="19"/>
       <c r="C116" s="84" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D116" s="21"/>
     </row>
@@ -7654,83 +7688,83 @@
     <row r="118" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="19"/>
       <c r="B118" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C118" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D118" s="52" t="s">
         <v>144</v>
-      </c>
-      <c r="D118" s="52" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A119" s="81" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A120" s="81" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B120" s="53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C120" s="55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D120" s="56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="88" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B121" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C121" s="54"/>
       <c r="D121" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F121" s="87" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A122" s="61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B122" s="16"/>
       <c r="C122" s="28"/>
       <c r="D122" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A123" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C123" s="50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D123" s="21"/>
     </row>
     <row r="124" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C124" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D124" s="21"/>
     </row>
@@ -7742,13 +7776,13 @@
     </row>
     <row r="126" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A126" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C126" s="50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D126" s="21" t="s">
         <v>82</v>
@@ -7762,20 +7796,20 @@
     </row>
     <row r="128" spans="1:6" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="83" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B128" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="C128" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="D128" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="C128" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="D128" s="58" t="s">
-        <v>161</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
